--- a/exported_legal_guardians.xlsx
+++ b/exported_legal_guardians.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,6 +460,98 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Reine</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>70216053</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Chris Houwayek</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Mother</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Tamara</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>03468483</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Luke Hawat</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Mother</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Elise</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>03944521</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Cesar Ghanem</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Mother</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Eveline</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>03533405</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Ghadi Mouawad</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Mother</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
